--- a/src/ITMA/fjapp.xlsx
+++ b/src/ITMA/fjapp.xlsx
@@ -883,8 +883,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,6 +1194,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1921,8 +1923,8 @@
       <c r="J3" t="s">
         <v>150</v>
       </c>
-      <c r="K3">
-        <v>42887</v>
+      <c r="K3" s="1">
+        <v>42370</v>
       </c>
       <c r="L3">
         <v>0.25</v>
@@ -2079,8 +2081,8 @@
       <c r="J4" t="s">
         <v>150</v>
       </c>
-      <c r="K4">
-        <v>42887</v>
+      <c r="K4" s="1">
+        <v>42370</v>
       </c>
       <c r="L4">
         <v>0.25</v>
@@ -2237,8 +2239,8 @@
       <c r="J5" t="s">
         <v>150</v>
       </c>
-      <c r="K5">
-        <v>42887</v>
+      <c r="K5" s="1">
+        <v>42370</v>
       </c>
       <c r="L5">
         <v>0.25</v>
@@ -2395,8 +2397,8 @@
       <c r="J6" t="s">
         <v>150</v>
       </c>
-      <c r="K6">
-        <v>42887</v>
+      <c r="K6" s="1">
+        <v>42370</v>
       </c>
       <c r="L6">
         <v>0.25</v>
@@ -2553,8 +2555,8 @@
       <c r="J7" t="s">
         <v>150</v>
       </c>
-      <c r="K7">
-        <v>42887</v>
+      <c r="K7" s="1">
+        <v>42370</v>
       </c>
       <c r="L7">
         <v>0.25</v>
@@ -2711,8 +2713,8 @@
       <c r="J8" t="s">
         <v>150</v>
       </c>
-      <c r="K8">
-        <v>42887</v>
+      <c r="K8" s="1">
+        <v>42370</v>
       </c>
       <c r="L8">
         <v>0.25</v>
@@ -2869,8 +2871,8 @@
       <c r="J9" t="s">
         <v>150</v>
       </c>
-      <c r="K9">
-        <v>42887</v>
+      <c r="K9" s="1">
+        <v>42370</v>
       </c>
       <c r="L9">
         <v>0.25</v>
@@ -3027,8 +3029,8 @@
       <c r="J10" t="s">
         <v>150</v>
       </c>
-      <c r="K10">
-        <v>42887</v>
+      <c r="K10" s="1">
+        <v>42370</v>
       </c>
       <c r="L10">
         <v>0.25</v>
@@ -3185,8 +3187,8 @@
       <c r="J11" t="s">
         <v>150</v>
       </c>
-      <c r="K11">
-        <v>42887</v>
+      <c r="K11" s="1">
+        <v>42370</v>
       </c>
       <c r="L11">
         <v>0.25</v>
@@ -3343,8 +3345,8 @@
       <c r="J12" t="s">
         <v>150</v>
       </c>
-      <c r="K12">
-        <v>42887</v>
+      <c r="K12" s="1">
+        <v>42370</v>
       </c>
       <c r="L12">
         <v>0.25</v>
@@ -3501,8 +3503,8 @@
       <c r="J13" t="s">
         <v>150</v>
       </c>
-      <c r="K13">
-        <v>42887</v>
+      <c r="K13" s="1">
+        <v>42370</v>
       </c>
       <c r="L13">
         <v>0.35</v>
@@ -3659,8 +3661,8 @@
       <c r="J14" t="s">
         <v>150</v>
       </c>
-      <c r="K14">
-        <v>42887</v>
+      <c r="K14" s="1">
+        <v>42370</v>
       </c>
       <c r="L14">
         <v>0.35</v>
@@ -3817,8 +3819,8 @@
       <c r="J15" t="s">
         <v>150</v>
       </c>
-      <c r="K15">
-        <v>42887</v>
+      <c r="K15" s="1">
+        <v>42379</v>
       </c>
       <c r="L15">
         <v>0.35</v>
@@ -3975,8 +3977,8 @@
       <c r="J16" t="s">
         <v>150</v>
       </c>
-      <c r="K16">
-        <v>42887</v>
+      <c r="K16" s="1">
+        <v>42379</v>
       </c>
       <c r="L16">
         <v>0.35</v>
@@ -4133,8 +4135,8 @@
       <c r="J17" t="s">
         <v>150</v>
       </c>
-      <c r="K17">
-        <v>42979</v>
+      <c r="K17" s="1">
+        <v>42379</v>
       </c>
       <c r="L17">
         <v>0.35</v>
@@ -4291,8 +4293,8 @@
       <c r="J18" t="s">
         <v>150</v>
       </c>
-      <c r="K18">
-        <v>42979</v>
+      <c r="K18" s="1">
+        <v>42379</v>
       </c>
       <c r="L18">
         <v>0.35</v>
@@ -4452,8 +4454,8 @@
       <c r="J19" t="s">
         <v>150</v>
       </c>
-      <c r="K19">
-        <v>42979</v>
+      <c r="K19" s="1">
+        <v>42379</v>
       </c>
       <c r="L19">
         <v>0.35</v>
@@ -4610,8 +4612,8 @@
       <c r="J20" t="s">
         <v>150</v>
       </c>
-      <c r="K20">
-        <v>42979</v>
+      <c r="K20" s="1">
+        <v>42379</v>
       </c>
       <c r="L20">
         <v>0.35</v>
@@ -4768,8 +4770,8 @@
       <c r="J21" t="s">
         <v>150</v>
       </c>
-      <c r="K21">
-        <v>42979</v>
+      <c r="K21" s="1">
+        <v>42379</v>
       </c>
       <c r="L21">
         <v>0.35</v>
@@ -4926,8 +4928,8 @@
       <c r="J22" t="s">
         <v>150</v>
       </c>
-      <c r="K22">
-        <v>42979</v>
+      <c r="K22" s="1">
+        <v>42379</v>
       </c>
       <c r="L22">
         <v>0.35</v>
@@ -5084,8 +5086,8 @@
       <c r="J23" t="s">
         <v>150</v>
       </c>
-      <c r="K23">
-        <v>42979</v>
+      <c r="K23" s="1">
+        <v>42379</v>
       </c>
       <c r="L23">
         <v>0.35</v>
@@ -5242,8 +5244,8 @@
       <c r="J24" t="s">
         <v>150</v>
       </c>
-      <c r="K24">
-        <v>42979</v>
+      <c r="K24" s="1">
+        <v>42379</v>
       </c>
       <c r="L24">
         <v>0.35</v>
@@ -5400,8 +5402,8 @@
       <c r="J25" t="s">
         <v>212</v>
       </c>
-      <c r="K25">
-        <v>42979</v>
+      <c r="K25" s="1">
+        <v>42379</v>
       </c>
       <c r="L25">
         <v>0.35</v>
@@ -5579,8 +5581,8 @@
       <c r="J26" t="s">
         <v>150</v>
       </c>
-      <c r="K26">
-        <v>42979</v>
+      <c r="K26" s="1">
+        <v>42379</v>
       </c>
       <c r="L26">
         <v>0.35</v>
@@ -5737,8 +5739,8 @@
       <c r="J27" t="s">
         <v>150</v>
       </c>
-      <c r="K27">
-        <v>42979</v>
+      <c r="K27" s="1">
+        <v>42379</v>
       </c>
       <c r="L27">
         <v>0.35</v>
@@ -5895,8 +5897,8 @@
       <c r="J28" t="s">
         <v>150</v>
       </c>
-      <c r="K28">
-        <v>42979</v>
+      <c r="K28" s="1">
+        <v>42379</v>
       </c>
       <c r="L28">
         <v>0.35</v>
@@ -6053,8 +6055,8 @@
       <c r="J29" t="s">
         <v>150</v>
       </c>
-      <c r="K29">
-        <v>42979</v>
+      <c r="K29" s="1">
+        <v>42379</v>
       </c>
       <c r="L29">
         <v>0.35</v>
@@ -6211,8 +6213,8 @@
       <c r="J30" t="s">
         <v>150</v>
       </c>
-      <c r="K30">
-        <v>42979</v>
+      <c r="K30" s="1">
+        <v>42379</v>
       </c>
       <c r="L30">
         <v>0.35</v>
@@ -6369,8 +6371,8 @@
       <c r="J31" t="s">
         <v>150</v>
       </c>
-      <c r="K31">
-        <v>42979</v>
+      <c r="K31" s="1">
+        <v>42379</v>
       </c>
       <c r="L31">
         <v>0.35</v>
@@ -6527,8 +6529,8 @@
       <c r="J32" t="s">
         <v>150</v>
       </c>
-      <c r="K32">
-        <v>42979</v>
+      <c r="K32" s="1">
+        <v>42379</v>
       </c>
       <c r="L32">
         <v>0.35</v>
@@ -6685,8 +6687,8 @@
       <c r="J33" t="s">
         <v>150</v>
       </c>
-      <c r="K33">
-        <v>42979</v>
+      <c r="K33" s="1">
+        <v>42379</v>
       </c>
       <c r="L33">
         <v>0.35</v>
@@ -6843,8 +6845,8 @@
       <c r="J34" t="s">
         <v>150</v>
       </c>
-      <c r="K34">
-        <v>42979</v>
+      <c r="K34" s="1">
+        <v>42379</v>
       </c>
       <c r="L34">
         <v>0.35</v>
@@ -7001,8 +7003,8 @@
       <c r="J35" t="s">
         <v>150</v>
       </c>
-      <c r="K35">
-        <v>42979</v>
+      <c r="K35" s="1">
+        <v>42379</v>
       </c>
       <c r="L35">
         <v>0.4</v>
@@ -7159,8 +7161,8 @@
       <c r="J36" t="s">
         <v>150</v>
       </c>
-      <c r="K36">
-        <v>42979</v>
+      <c r="K36" s="1">
+        <v>42379</v>
       </c>
       <c r="L36">
         <v>0.4</v>
@@ -7317,8 +7319,8 @@
       <c r="J37" t="s">
         <v>150</v>
       </c>
-      <c r="K37">
-        <v>42979</v>
+      <c r="K37" s="1">
+        <v>42379</v>
       </c>
       <c r="L37">
         <v>0.4</v>
@@ -7475,8 +7477,8 @@
       <c r="J38" t="s">
         <v>150</v>
       </c>
-      <c r="K38">
-        <v>42979</v>
+      <c r="K38" s="1">
+        <v>42379</v>
       </c>
       <c r="L38">
         <v>0.4</v>
@@ -7633,8 +7635,8 @@
       <c r="J39" t="s">
         <v>150</v>
       </c>
-      <c r="K39">
-        <v>42979</v>
+      <c r="K39" s="1">
+        <v>42379</v>
       </c>
       <c r="L39">
         <v>0.35</v>
@@ -7791,8 +7793,8 @@
       <c r="J40" t="s">
         <v>150</v>
       </c>
-      <c r="K40">
-        <v>42979</v>
+      <c r="K40" s="1">
+        <v>42379</v>
       </c>
       <c r="L40">
         <v>0.35</v>
@@ -7949,8 +7951,8 @@
       <c r="J41" t="s">
         <v>150</v>
       </c>
-      <c r="K41">
-        <v>42979</v>
+      <c r="K41" s="1">
+        <v>42379</v>
       </c>
       <c r="L41">
         <v>0.35</v>
@@ -8107,8 +8109,8 @@
       <c r="J42" t="s">
         <v>150</v>
       </c>
-      <c r="K42">
-        <v>42979</v>
+      <c r="K42" s="1">
+        <v>42379</v>
       </c>
       <c r="L42">
         <v>0.35</v>
@@ -8265,8 +8267,8 @@
       <c r="J43" t="s">
         <v>150</v>
       </c>
-      <c r="K43">
-        <v>42979</v>
+      <c r="K43" s="1">
+        <v>42379</v>
       </c>
       <c r="L43">
         <v>0.35</v>
@@ -8423,8 +8425,8 @@
       <c r="J44" t="s">
         <v>150</v>
       </c>
-      <c r="K44">
-        <v>42979</v>
+      <c r="K44" s="1">
+        <v>42379</v>
       </c>
       <c r="L44">
         <v>0.35</v>
@@ -8584,8 +8586,8 @@
       <c r="J45" t="s">
         <v>150</v>
       </c>
-      <c r="K45">
-        <v>42979</v>
+      <c r="K45" s="1">
+        <v>42379</v>
       </c>
       <c r="L45">
         <v>0.35</v>
@@ -8745,8 +8747,8 @@
       <c r="J46" t="s">
         <v>150</v>
       </c>
-      <c r="K46">
-        <v>42979</v>
+      <c r="K46" s="1">
+        <v>42379</v>
       </c>
       <c r="L46">
         <v>0.35</v>
@@ -8906,8 +8908,8 @@
       <c r="J47" t="s">
         <v>150</v>
       </c>
-      <c r="K47">
-        <v>42979</v>
+      <c r="K47" s="1">
+        <v>42379</v>
       </c>
       <c r="L47">
         <v>0.35</v>
@@ -9067,8 +9069,8 @@
       <c r="J48" t="s">
         <v>150</v>
       </c>
-      <c r="K48">
-        <v>42979</v>
+      <c r="K48" s="1">
+        <v>42379</v>
       </c>
       <c r="L48">
         <v>0.35</v>
@@ -9228,8 +9230,8 @@
       <c r="J49" t="s">
         <v>150</v>
       </c>
-      <c r="K49">
-        <v>42979</v>
+      <c r="K49" s="1">
+        <v>42379</v>
       </c>
       <c r="L49">
         <v>0.35</v>

--- a/src/ITMA/fjapp.xlsx
+++ b/src/ITMA/fjapp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="325">
   <si>
     <t>NA</t>
   </si>
@@ -848,6 +848,147 @@
   </si>
   <si>
     <t>f39</t>
+  </si>
+  <si>
+    <t>92166</t>
+  </si>
+  <si>
+    <t>92167</t>
+  </si>
+  <si>
+    <t>92168</t>
+  </si>
+  <si>
+    <t>92169</t>
+  </si>
+  <si>
+    <t>92179</t>
+  </si>
+  <si>
+    <t>92180</t>
+  </si>
+  <si>
+    <t>92400</t>
+  </si>
+  <si>
+    <t>92401</t>
+  </si>
+  <si>
+    <t>92402</t>
+  </si>
+  <si>
+    <t>92403</t>
+  </si>
+  <si>
+    <t>92404</t>
+  </si>
+  <si>
+    <t>92405</t>
+  </si>
+  <si>
+    <t>92406</t>
+  </si>
+  <si>
+    <t>92407</t>
+  </si>
+  <si>
+    <t>95002</t>
+  </si>
+  <si>
+    <t>95010</t>
+  </si>
+  <si>
+    <t>95011</t>
+  </si>
+  <si>
+    <t>95012</t>
+  </si>
+  <si>
+    <t>95013</t>
+  </si>
+  <si>
+    <t>95014</t>
+  </si>
+  <si>
+    <t>95015</t>
+  </si>
+  <si>
+    <t>95016</t>
+  </si>
+  <si>
+    <t>95017</t>
+  </si>
+  <si>
+    <t>95580</t>
+  </si>
+  <si>
+    <t>95579</t>
+  </si>
+  <si>
+    <t>95582</t>
+  </si>
+  <si>
+    <t>95583</t>
+  </si>
+  <si>
+    <t>95584</t>
+  </si>
+  <si>
+    <t>95585</t>
+  </si>
+  <si>
+    <t>95586</t>
+  </si>
+  <si>
+    <t>95587</t>
+  </si>
+  <si>
+    <t>95589</t>
+  </si>
+  <si>
+    <t>95430</t>
+  </si>
+  <si>
+    <t>95431</t>
+  </si>
+  <si>
+    <t>95432</t>
+  </si>
+  <si>
+    <t>95433</t>
+  </si>
+  <si>
+    <t>92568</t>
+  </si>
+  <si>
+    <t>92569</t>
+  </si>
+  <si>
+    <t>92527</t>
+  </si>
+  <si>
+    <t>92528</t>
+  </si>
+  <si>
+    <t>92529</t>
+  </si>
+  <si>
+    <t>95993</t>
+  </si>
+  <si>
+    <t>95994</t>
+  </si>
+  <si>
+    <t>95995</t>
+  </si>
+  <si>
+    <t>95996</t>
+  </si>
+  <si>
+    <t>94388</t>
+  </si>
+  <si>
+    <t>94389</t>
   </si>
 </sst>
 </file>
@@ -883,9 +1024,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1893,8 +2035,8 @@
       </c>
     </row>
     <row r="3" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>92166</v>
+      <c r="A3" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B3" t="s">
         <v>146</v>
@@ -2051,8 +2193,8 @@
       </c>
     </row>
     <row r="4" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>92167</v>
+      <c r="A4" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -2209,8 +2351,8 @@
       </c>
     </row>
     <row r="5" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>92168</v>
+      <c r="A5" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>161</v>
@@ -2367,8 +2509,8 @@
       </c>
     </row>
     <row r="6" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>92169</v>
+      <c r="A6" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>163</v>
@@ -2525,8 +2667,8 @@
       </c>
     </row>
     <row r="7" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>92179</v>
+      <c r="A7" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>165</v>
@@ -2683,8 +2825,8 @@
       </c>
     </row>
     <row r="8" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>92180</v>
+      <c r="A8" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>167</v>
@@ -2841,8 +2983,8 @@
       </c>
     </row>
     <row r="9" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>92400</v>
+      <c r="A9" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>169</v>
@@ -2999,8 +3141,8 @@
       </c>
     </row>
     <row r="10" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>92401</v>
+      <c r="A10" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>171</v>
@@ -3157,8 +3299,8 @@
       </c>
     </row>
     <row r="11" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>92402</v>
+      <c r="A11" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>173</v>
@@ -3315,8 +3457,8 @@
       </c>
     </row>
     <row r="12" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>92403</v>
+      <c r="A12" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>175</v>
@@ -3473,8 +3615,8 @@
       </c>
     </row>
     <row r="13" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>92404</v>
+      <c r="A13" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B13" t="s">
         <v>177</v>
@@ -3631,8 +3773,8 @@
       </c>
     </row>
     <row r="14" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>92405</v>
+      <c r="A14" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>182</v>
@@ -3789,8 +3931,8 @@
       </c>
     </row>
     <row r="15" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>92406</v>
+      <c r="A15" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>184</v>
@@ -3947,8 +4089,8 @@
       </c>
     </row>
     <row r="16" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>92407</v>
+      <c r="A16" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B16" t="s">
         <v>186</v>
@@ -4105,8 +4247,8 @@
       </c>
     </row>
     <row r="17" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>95002</v>
+      <c r="A17" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B17" t="s">
         <v>188</v>
@@ -4263,8 +4405,8 @@
       </c>
     </row>
     <row r="18" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>95010</v>
+      <c r="A18" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>192</v>
@@ -4424,8 +4566,8 @@
       </c>
     </row>
     <row r="19" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>95011</v>
+      <c r="A19" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
@@ -4582,8 +4724,8 @@
       </c>
     </row>
     <row r="20" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>95012</v>
+      <c r="A20" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B20" t="s">
         <v>197</v>
@@ -4740,8 +4882,8 @@
       </c>
     </row>
     <row r="21" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>95013</v>
+      <c r="A21" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B21" t="s">
         <v>199</v>
@@ -4898,8 +5040,8 @@
       </c>
     </row>
     <row r="22" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>95014</v>
+      <c r="A22" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B22" t="s">
         <v>201</v>
@@ -5056,8 +5198,8 @@
       </c>
     </row>
     <row r="23" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>95015</v>
+      <c r="A23" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
@@ -5214,8 +5356,8 @@
       </c>
     </row>
     <row r="24" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>95016</v>
+      <c r="A24" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B24" t="s">
         <v>207</v>
@@ -5372,8 +5514,8 @@
       </c>
     </row>
     <row r="25" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>95017</v>
+      <c r="A25" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B25" t="s">
         <v>209</v>
@@ -5551,8 +5693,8 @@
       </c>
     </row>
     <row r="26" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>95580</v>
+      <c r="A26" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="B26" t="s">
         <v>214</v>
@@ -5709,8 +5851,8 @@
       </c>
     </row>
     <row r="27" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>95579</v>
+      <c r="A27" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B27" t="s">
         <v>217</v>
@@ -5867,8 +6009,8 @@
       </c>
     </row>
     <row r="28" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>95582</v>
+      <c r="A28" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B28" t="s">
         <v>218</v>
@@ -6025,8 +6167,8 @@
       </c>
     </row>
     <row r="29" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>95583</v>
+      <c r="A29" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B29" t="s">
         <v>219</v>
@@ -6183,8 +6325,8 @@
       </c>
     </row>
     <row r="30" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>95584</v>
+      <c r="A30" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B30" t="s">
         <v>222</v>
@@ -6341,8 +6483,8 @@
       </c>
     </row>
     <row r="31" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>95585</v>
+      <c r="A31" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="B31" t="s">
         <v>226</v>
@@ -6499,8 +6641,8 @@
       </c>
     </row>
     <row r="32" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>95586</v>
+      <c r="A32" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B32" t="s">
         <v>228</v>
@@ -6657,8 +6799,8 @@
       </c>
     </row>
     <row r="33" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>95587</v>
+      <c r="A33" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B33" t="s">
         <v>230</v>
@@ -6815,8 +6957,8 @@
       </c>
     </row>
     <row r="34" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>95589</v>
+      <c r="A34" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B34" t="s">
         <v>232</v>
@@ -6973,8 +7115,8 @@
       </c>
     </row>
     <row r="35" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>95430</v>
+      <c r="A35" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="B35" t="s">
         <v>234</v>
@@ -7131,8 +7273,8 @@
       </c>
     </row>
     <row r="36" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>95431</v>
+      <c r="A36" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B36" t="s">
         <v>236</v>
@@ -7289,8 +7431,8 @@
       </c>
     </row>
     <row r="37" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>95432</v>
+      <c r="A37" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B37" t="s">
         <v>238</v>
@@ -7447,8 +7589,8 @@
       </c>
     </row>
     <row r="38" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>95433</v>
+      <c r="A38" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B38" t="s">
         <v>240</v>
@@ -7605,8 +7747,8 @@
       </c>
     </row>
     <row r="39" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>92568</v>
+      <c r="A39" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
@@ -7763,8 +7905,8 @@
       </c>
     </row>
     <row r="40" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>92569</v>
+      <c r="A40" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>244</v>
@@ -7921,8 +8063,8 @@
       </c>
     </row>
     <row r="41" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>92527</v>
+      <c r="A41" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B41" t="s">
         <v>246</v>
@@ -8079,8 +8221,8 @@
       </c>
     </row>
     <row r="42" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>92528</v>
+      <c r="A42" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B42" t="s">
         <v>248</v>
@@ -8237,8 +8379,8 @@
       </c>
     </row>
     <row r="43" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>92529</v>
+      <c r="A43" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="B43" t="s">
         <v>250</v>
@@ -8395,8 +8537,8 @@
       </c>
     </row>
     <row r="44" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>95993</v>
+      <c r="A44" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B44" t="s">
         <v>252</v>
@@ -8556,8 +8698,8 @@
       </c>
     </row>
     <row r="45" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>95994</v>
+      <c r="A45" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B45" t="s">
         <v>256</v>
@@ -8717,8 +8859,8 @@
       </c>
     </row>
     <row r="46" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>95995</v>
+      <c r="A46" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="B46" t="s">
         <v>258</v>
@@ -8878,8 +9020,8 @@
       </c>
     </row>
     <row r="47" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>95996</v>
+      <c r="A47" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B47" t="s">
         <v>260</v>
@@ -9039,8 +9181,8 @@
       </c>
     </row>
     <row r="48" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>94388</v>
+      <c r="A48" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="B48" t="s">
         <v>262</v>
@@ -9200,8 +9342,8 @@
       </c>
     </row>
     <row r="49" spans="1:115" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>94389</v>
+      <c r="A49" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B49" t="s">
         <v>265</v>
